--- a/classfiers/chatty/MLP/smote/chatty-mlp-smote-results.xlsx
+++ b/classfiers/chatty/MLP/smote/chatty-mlp-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.9871244635193133</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0.9935205183585313</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0.9996800301148127</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9703389830508474</v>
+        <v>0.9585062240663901</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9849462365591398</v>
+        <v>0.9788135593220338</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9745762711864406</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9871244635193133</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.9956709956709957</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0.9978308026030369</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9889830508474576</v>
+        <v>0.9882603366513398</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9944141400156905</v>
+        <v>0.9940329760567204</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0.9999360060229625</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/chatty/MLP/smote/chatty-mlp-smote-results.xlsx
+++ b/classfiers/chatty/MLP/smote/chatty-mlp-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9871244635193133</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9935205183585313</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9996800301148127</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9585062240663901</v>
+        <v>0.9282511210762332</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9788135593220338</v>
+        <v>0.9627906976744186</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9985600148643626</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.9629629629629629</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.9811320754716981</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0.9999767744332962</v>
       </c>
     </row>
     <row r="5">
@@ -524,13 +524,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9956709956709957</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9978308026030369</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.9904306220095693</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.9951923076923077</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9882603366513398</v>
+        <v>0.9763289412097531</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9940329760567204</v>
+        <v>0.9878230161676849</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999360060229625</v>
+        <v>0.9997073578595318</v>
       </c>
     </row>
   </sheetData>
